--- a/public/Good_Excel.xlsx
+++ b/public/Good_Excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5270a36e16143792/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cesar Torres\Documents\GitHub\Drivewise-Template\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{C7E2088D-403C-4784-BBE3-D0F036AC0E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2533DA0F-F10F-4BAB-8D34-3C6745FFDBD3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC13C154-F9F9-4BDB-9A8A-F6026AF5A3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{586F1875-D0D9-46B0-BE9D-36C076FB772B}"/>
+    <workbookView xWindow="8736" yWindow="1644" windowWidth="21840" windowHeight="15000" xr2:uid="{586F1875-D0D9-46B0-BE9D-36C076FB772B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3600" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3600" uniqueCount="149">
   <si>
     <t xml:space="preserve">2ND ST                        </t>
   </si>
@@ -426,6 +426,63 @@
   </si>
   <si>
     <t xml:space="preserve">N STONE AVE                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEL MORAL BL S                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E FLOWER ST                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E FLOWER                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N PALO VERDE AV               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIMA ST E                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESCALANTE RD E                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PANTANO RD S                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E ESCALANTE RD                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">S PANTANO RD                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESCALANTE RD                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PENNINGTON ST E               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E PENNINGTON ST               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">W VALENCIA RD                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRAYCROFT RD N                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6TH AV S                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4TH AV N                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N 4TH AV                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5TH ST E                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVIATION DR E                 </t>
   </si>
 </sst>
 </file>
@@ -779,19 +836,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F44A69-D277-4AC6-B839-E6BFF3307372}">
   <dimension ref="A1:F600"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A573" workbookViewId="0">
-      <selection activeCell="F605" sqref="F605"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="A367" sqref="A367:A383"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>108</v>
       </c>
@@ -811,7 +868,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -831,7 +888,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -851,7 +908,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -871,7 +928,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -891,7 +948,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -911,7 +968,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -931,7 +988,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -951,7 +1008,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -971,7 +1028,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -991,7 +1048,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1011,7 +1068,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1031,7 +1088,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1051,7 +1108,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1071,7 +1128,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1091,7 +1148,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1111,7 +1168,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1131,7 +1188,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1151,7 +1208,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1171,7 +1228,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1191,7 +1248,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1211,7 +1268,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1231,7 +1288,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1251,7 +1308,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1271,7 +1328,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1291,7 +1348,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -1311,7 +1368,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1331,7 +1388,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1351,7 +1408,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1371,7 +1428,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1391,7 +1448,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -1411,7 +1468,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -1431,7 +1488,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -1451,7 +1508,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -1471,7 +1528,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -1491,7 +1548,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -1511,7 +1568,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -1531,7 +1588,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -1551,7 +1608,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -1571,7 +1628,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -1591,7 +1648,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -1611,7 +1668,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -1631,7 +1688,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>16</v>
       </c>
@@ -1651,7 +1708,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -1671,7 +1728,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -1691,7 +1748,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -1711,7 +1768,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -1731,7 +1788,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>16</v>
       </c>
@@ -1751,7 +1808,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>16</v>
       </c>
@@ -1771,7 +1828,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>16</v>
       </c>
@@ -1791,7 +1848,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>16</v>
       </c>
@@ -1811,7 +1868,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -1831,7 +1888,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>16</v>
       </c>
@@ -1851,7 +1908,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -1871,7 +1928,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -1891,7 +1948,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -1911,7 +1968,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>16</v>
       </c>
@@ -1931,7 +1988,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -1951,7 +2008,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>16</v>
       </c>
@@ -1971,7 +2028,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>14</v>
       </c>
@@ -1991,7 +2048,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>16</v>
       </c>
@@ -2011,7 +2068,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>16</v>
       </c>
@@ -2031,7 +2088,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>14</v>
       </c>
@@ -2051,7 +2108,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -2071,7 +2128,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>18</v>
       </c>
@@ -2091,7 +2148,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>19</v>
       </c>
@@ -2111,7 +2168,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>20</v>
       </c>
@@ -2131,7 +2188,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>18</v>
       </c>
@@ -2151,7 +2208,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>21</v>
       </c>
@@ -2171,7 +2228,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>19</v>
       </c>
@@ -2191,7 +2248,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>22</v>
       </c>
@@ -2211,7 +2268,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>22</v>
       </c>
@@ -2231,7 +2288,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>19</v>
       </c>
@@ -2251,7 +2308,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>20</v>
       </c>
@@ -2271,7 +2328,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>20</v>
       </c>
@@ -2291,7 +2348,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>13</v>
       </c>
@@ -2311,7 +2368,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>13</v>
       </c>
@@ -2331,7 +2388,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>15</v>
       </c>
@@ -2351,7 +2408,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>13</v>
       </c>
@@ -2371,7 +2428,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>14</v>
       </c>
@@ -2391,7 +2448,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>15</v>
       </c>
@@ -2411,7 +2468,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>13</v>
       </c>
@@ -2431,7 +2488,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>23</v>
       </c>
@@ -2451,7 +2508,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>16</v>
       </c>
@@ -2471,7 +2528,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -2491,7 +2548,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>15</v>
       </c>
@@ -2511,7 +2568,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>15</v>
       </c>
@@ -2531,7 +2588,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>15</v>
       </c>
@@ -2551,7 +2608,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>15</v>
       </c>
@@ -2571,7 +2628,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>15</v>
       </c>
@@ -2591,7 +2648,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>16</v>
       </c>
@@ -2611,7 +2668,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>13</v>
       </c>
@@ -2631,7 +2688,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>13</v>
       </c>
@@ -2651,7 +2708,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>16</v>
       </c>
@@ -2671,7 +2728,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>13</v>
       </c>
@@ -2691,7 +2748,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>13</v>
       </c>
@@ -2711,7 +2768,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>15</v>
       </c>
@@ -2731,7 +2788,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>24</v>
       </c>
@@ -2751,7 +2808,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>24</v>
       </c>
@@ -2771,7 +2828,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>24</v>
       </c>
@@ -2791,7 +2848,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>24</v>
       </c>
@@ -2811,7 +2868,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>14</v>
       </c>
@@ -2831,7 +2888,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>16</v>
       </c>
@@ -2851,7 +2908,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>25</v>
       </c>
@@ -2871,7 +2928,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>24</v>
       </c>
@@ -2891,7 +2948,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>14</v>
       </c>
@@ -2911,7 +2968,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>14</v>
       </c>
@@ -2931,7 +2988,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>26</v>
       </c>
@@ -2951,7 +3008,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>27</v>
       </c>
@@ -2971,7 +3028,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>26</v>
       </c>
@@ -2991,7 +3048,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>28</v>
       </c>
@@ -3011,7 +3068,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>29</v>
       </c>
@@ -3031,7 +3088,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>26</v>
       </c>
@@ -3051,7 +3108,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>28</v>
       </c>
@@ -3071,7 +3128,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>29</v>
       </c>
@@ -3091,7 +3148,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>26</v>
       </c>
@@ -3111,7 +3168,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>30</v>
       </c>
@@ -3131,7 +3188,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>26</v>
       </c>
@@ -3151,7 +3208,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>26</v>
       </c>
@@ -3171,7 +3228,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>29</v>
       </c>
@@ -3191,7 +3248,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>31</v>
       </c>
@@ -3211,7 +3268,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>32</v>
       </c>
@@ -3231,7 +3288,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>33</v>
       </c>
@@ -3251,7 +3308,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>34</v>
       </c>
@@ -3271,7 +3328,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>34</v>
       </c>
@@ -3291,7 +3348,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>35</v>
       </c>
@@ -3311,7 +3368,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>35</v>
       </c>
@@ -3331,7 +3388,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>34</v>
       </c>
@@ -3351,7 +3408,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>33</v>
       </c>
@@ -3371,7 +3428,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>34</v>
       </c>
@@ -3391,7 +3448,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>33</v>
       </c>
@@ -3411,7 +3468,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>33</v>
       </c>
@@ -3431,7 +3488,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>33</v>
       </c>
@@ -3451,7 +3508,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>36</v>
       </c>
@@ -3471,7 +3528,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>37</v>
       </c>
@@ -3491,7 +3548,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>38</v>
       </c>
@@ -3511,7 +3568,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>33</v>
       </c>
@@ -3531,7 +3588,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>33</v>
       </c>
@@ -3551,7 +3608,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>33</v>
       </c>
@@ -3571,7 +3628,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>32</v>
       </c>
@@ -3591,7 +3648,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>39</v>
       </c>
@@ -3611,7 +3668,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>40</v>
       </c>
@@ -3631,7 +3688,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>41</v>
       </c>
@@ -3651,7 +3708,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>42</v>
       </c>
@@ -3671,7 +3728,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>43</v>
       </c>
@@ -3691,7 +3748,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>43</v>
       </c>
@@ -3711,7 +3768,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>43</v>
       </c>
@@ -3731,7 +3788,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>43</v>
       </c>
@@ -3751,7 +3808,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>44</v>
       </c>
@@ -3771,7 +3828,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>45</v>
       </c>
@@ -3791,7 +3848,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>46</v>
       </c>
@@ -3811,7 +3868,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>47</v>
       </c>
@@ -3831,7 +3888,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>48</v>
       </c>
@@ -3851,7 +3908,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>49</v>
       </c>
@@ -3871,7 +3928,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>50</v>
       </c>
@@ -3891,7 +3948,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>51</v>
       </c>
@@ -3911,7 +3968,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>51</v>
       </c>
@@ -3931,7 +3988,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>51</v>
       </c>
@@ -3951,7 +4008,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>51</v>
       </c>
@@ -3971,7 +4028,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>52</v>
       </c>
@@ -3991,7 +4048,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>53</v>
       </c>
@@ -4011,7 +4068,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>54</v>
       </c>
@@ -4031,7 +4088,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>55</v>
       </c>
@@ -4051,7 +4108,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>54</v>
       </c>
@@ -4071,7 +4128,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>54</v>
       </c>
@@ -4091,7 +4148,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>54</v>
       </c>
@@ -4111,7 +4168,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>54</v>
       </c>
@@ -4131,7 +4188,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>54</v>
       </c>
@@ -4151,7 +4208,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>56</v>
       </c>
@@ -4171,7 +4228,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>56</v>
       </c>
@@ -4191,7 +4248,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>55</v>
       </c>
@@ -4211,7 +4268,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>54</v>
       </c>
@@ -4231,7 +4288,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>55</v>
       </c>
@@ -4251,7 +4308,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>54</v>
       </c>
@@ -4271,7 +4328,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>54</v>
       </c>
@@ -4291,7 +4348,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>55</v>
       </c>
@@ -4311,7 +4368,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>55</v>
       </c>
@@ -4331,7 +4388,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>42</v>
       </c>
@@ -4351,7 +4408,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>54</v>
       </c>
@@ -4371,7 +4428,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>54</v>
       </c>
@@ -4391,7 +4448,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>54</v>
       </c>
@@ -4411,7 +4468,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>54</v>
       </c>
@@ -4431,7 +4488,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>55</v>
       </c>
@@ -4451,7 +4508,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>54</v>
       </c>
@@ -4471,7 +4528,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>55</v>
       </c>
@@ -4491,7 +4548,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>42</v>
       </c>
@@ -4511,7 +4568,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>54</v>
       </c>
@@ -4531,7 +4588,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>54</v>
       </c>
@@ -4551,7 +4608,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>42</v>
       </c>
@@ -4571,7 +4628,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>42</v>
       </c>
@@ -4591,7 +4648,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>55</v>
       </c>
@@ -4611,7 +4668,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>54</v>
       </c>
@@ -4631,7 +4688,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>54</v>
       </c>
@@ -4651,7 +4708,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>55</v>
       </c>
@@ -4671,7 +4728,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>42</v>
       </c>
@@ -4691,7 +4748,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>57</v>
       </c>
@@ -4711,7 +4768,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>57</v>
       </c>
@@ -4731,7 +4788,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>42</v>
       </c>
@@ -4751,7 +4808,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>57</v>
       </c>
@@ -4771,7 +4828,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>58</v>
       </c>
@@ -4791,7 +4848,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>59</v>
       </c>
@@ -4811,7 +4868,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>59</v>
       </c>
@@ -4831,7 +4888,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>59</v>
       </c>
@@ -4851,7 +4908,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>60</v>
       </c>
@@ -4871,7 +4928,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>56</v>
       </c>
@@ -4891,7 +4948,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>54</v>
       </c>
@@ -4911,7 +4968,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>59</v>
       </c>
@@ -4931,7 +4988,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>54</v>
       </c>
@@ -4951,7 +5008,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>54</v>
       </c>
@@ -4971,7 +5028,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>42</v>
       </c>
@@ -4991,7 +5048,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>54</v>
       </c>
@@ -5011,7 +5068,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>42</v>
       </c>
@@ -5031,7 +5088,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>54</v>
       </c>
@@ -5051,7 +5108,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>54</v>
       </c>
@@ -5071,7 +5128,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>54</v>
       </c>
@@ -5091,7 +5148,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>61</v>
       </c>
@@ -5111,7 +5168,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>56</v>
       </c>
@@ -5131,7 +5188,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>62</v>
       </c>
@@ -5151,7 +5208,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>42</v>
       </c>
@@ -5171,7 +5228,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>63</v>
       </c>
@@ -5191,7 +5248,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>54</v>
       </c>
@@ -5211,7 +5268,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>42</v>
       </c>
@@ -5231,7 +5288,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>44</v>
       </c>
@@ -5251,7 +5308,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>42</v>
       </c>
@@ -5271,7 +5328,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>42</v>
       </c>
@@ -5291,7 +5348,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>42</v>
       </c>
@@ -5311,7 +5368,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>42</v>
       </c>
@@ -5331,7 +5388,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>54</v>
       </c>
@@ -5351,7 +5408,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>56</v>
       </c>
@@ -5371,7 +5428,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>42</v>
       </c>
@@ -5391,7 +5448,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>55</v>
       </c>
@@ -5411,7 +5468,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>42</v>
       </c>
@@ -5431,7 +5488,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>42</v>
       </c>
@@ -5451,7 +5508,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>64</v>
       </c>
@@ -5471,7 +5528,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>64</v>
       </c>
@@ -5491,7 +5548,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>65</v>
       </c>
@@ -5511,7 +5568,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>66</v>
       </c>
@@ -5531,7 +5588,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>64</v>
       </c>
@@ -5551,7 +5608,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>66</v>
       </c>
@@ -5571,7 +5628,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>66</v>
       </c>
@@ -5591,7 +5648,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>67</v>
       </c>
@@ -5611,7 +5668,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>68</v>
       </c>
@@ -5631,7 +5688,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>69</v>
       </c>
@@ -5651,7 +5708,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>67</v>
       </c>
@@ -5671,7 +5728,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>68</v>
       </c>
@@ -5691,7 +5748,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>70</v>
       </c>
@@ -5711,7 +5768,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>67</v>
       </c>
@@ -5731,7 +5788,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>69</v>
       </c>
@@ -5751,7 +5808,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>67</v>
       </c>
@@ -5771,7 +5828,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>71</v>
       </c>
@@ -5791,7 +5848,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>68</v>
       </c>
@@ -5811,7 +5868,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>68</v>
       </c>
@@ -5831,7 +5888,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>71</v>
       </c>
@@ -5851,7 +5908,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>68</v>
       </c>
@@ -5871,7 +5928,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>72</v>
       </c>
@@ -5891,7 +5948,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>73</v>
       </c>
@@ -5911,7 +5968,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>73</v>
       </c>
@@ -5931,7 +5988,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>74</v>
       </c>
@@ -5951,7 +6008,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>75</v>
       </c>
@@ -5971,7 +6028,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>56</v>
       </c>
@@ -5991,7 +6048,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>56</v>
       </c>
@@ -6011,7 +6068,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>56</v>
       </c>
@@ -6031,7 +6088,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>56</v>
       </c>
@@ -6051,7 +6108,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>55</v>
       </c>
@@ -6071,7 +6128,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>19</v>
       </c>
@@ -6091,7 +6148,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>20</v>
       </c>
@@ -6111,7 +6168,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>20</v>
       </c>
@@ -6131,7 +6188,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>55</v>
       </c>
@@ -6151,7 +6208,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>55</v>
       </c>
@@ -6171,7 +6228,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>12</v>
       </c>
@@ -6191,7 +6248,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>56</v>
       </c>
@@ -6211,7 +6268,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>55</v>
       </c>
@@ -6231,7 +6288,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>56</v>
       </c>
@@ -6251,7 +6308,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>56</v>
       </c>
@@ -6271,7 +6328,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>19</v>
       </c>
@@ -6291,7 +6348,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>19</v>
       </c>
@@ -6311,7 +6368,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>19</v>
       </c>
@@ -6331,7 +6388,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>19</v>
       </c>
@@ -6351,7 +6408,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>56</v>
       </c>
@@ -6371,7 +6428,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>19</v>
       </c>
@@ -6391,7 +6448,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>19</v>
       </c>
@@ -6411,7 +6468,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>19</v>
       </c>
@@ -6431,7 +6488,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>56</v>
       </c>
@@ -6451,7 +6508,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>19</v>
       </c>
@@ -6471,7 +6528,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>19</v>
       </c>
@@ -6491,7 +6548,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>19</v>
       </c>
@@ -6511,7 +6568,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>20</v>
       </c>
@@ -6531,7 +6588,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>19</v>
       </c>
@@ -6551,7 +6608,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>19</v>
       </c>
@@ -6571,7 +6628,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>55</v>
       </c>
@@ -6591,7 +6648,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>55</v>
       </c>
@@ -6611,7 +6668,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>19</v>
       </c>
@@ -6631,7 +6688,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>55</v>
       </c>
@@ -6651,7 +6708,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>19</v>
       </c>
@@ -6671,7 +6728,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>55</v>
       </c>
@@ -6691,7 +6748,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>56</v>
       </c>
@@ -6711,7 +6768,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>20</v>
       </c>
@@ -6731,7 +6788,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>20</v>
       </c>
@@ -6751,7 +6808,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>56</v>
       </c>
@@ -6771,7 +6828,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>55</v>
       </c>
@@ -6791,7 +6848,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>22</v>
       </c>
@@ -6811,7 +6868,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>56</v>
       </c>
@@ -6831,7 +6888,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>19</v>
       </c>
@@ -6851,7 +6908,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>22</v>
       </c>
@@ -6871,7 +6928,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>22</v>
       </c>
@@ -6891,7 +6948,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>22</v>
       </c>
@@ -6911,7 +6968,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>20</v>
       </c>
@@ -6931,7 +6988,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>55</v>
       </c>
@@ -6951,7 +7008,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>20</v>
       </c>
@@ -6971,7 +7028,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>22</v>
       </c>
@@ -6991,7 +7048,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>22</v>
       </c>
@@ -7011,7 +7068,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>55</v>
       </c>
@@ -7031,7 +7088,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>20</v>
       </c>
@@ -7051,7 +7108,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>19</v>
       </c>
@@ -7071,7 +7128,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>55</v>
       </c>
@@ -7091,7 +7148,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>55</v>
       </c>
@@ -7111,7 +7168,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>57</v>
       </c>
@@ -7131,7 +7188,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>56</v>
       </c>
@@ -7151,7 +7208,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>19</v>
       </c>
@@ -7171,7 +7228,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>22</v>
       </c>
@@ -7191,7 +7248,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>56</v>
       </c>
@@ -7211,7 +7268,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>22</v>
       </c>
@@ -7231,7 +7288,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>56</v>
       </c>
@@ -7251,7 +7308,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>57</v>
       </c>
@@ -7271,7 +7328,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>55</v>
       </c>
@@ -7291,7 +7348,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>55</v>
       </c>
@@ -7311,7 +7368,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>55</v>
       </c>
@@ -7331,7 +7388,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>57</v>
       </c>
@@ -7351,7 +7408,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>57</v>
       </c>
@@ -7371,7 +7428,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>55</v>
       </c>
@@ -7391,7 +7448,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>56</v>
       </c>
@@ -7411,7 +7468,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>76</v>
       </c>
@@ -7431,7 +7488,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>77</v>
       </c>
@@ -7451,7 +7508,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>55</v>
       </c>
@@ -7471,7 +7528,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>55</v>
       </c>
@@ -7491,7 +7548,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>77</v>
       </c>
@@ -7511,7 +7568,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>55</v>
       </c>
@@ -7531,7 +7588,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>77</v>
       </c>
@@ -7551,7 +7608,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>55</v>
       </c>
@@ -7571,7 +7628,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>78</v>
       </c>
@@ -7591,7 +7648,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>79</v>
       </c>
@@ -7611,7 +7668,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>80</v>
       </c>
@@ -7631,7 +7688,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>80</v>
       </c>
@@ -7651,7 +7708,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>81</v>
       </c>
@@ -7671,7 +7728,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>82</v>
       </c>
@@ -7691,7 +7748,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>83</v>
       </c>
@@ -7711,7 +7768,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>84</v>
       </c>
@@ -7731,7 +7788,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>85</v>
       </c>
@@ -7751,7 +7808,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>86</v>
       </c>
@@ -7771,7 +7828,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>87</v>
       </c>
@@ -7791,7 +7848,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>86</v>
       </c>
@@ -7811,7 +7868,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>87</v>
       </c>
@@ -7831,7 +7888,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>84</v>
       </c>
@@ -7851,7 +7908,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>87</v>
       </c>
@@ -7871,7 +7928,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>87</v>
       </c>
@@ -7891,7 +7948,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>84</v>
       </c>
@@ -7911,7 +7968,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>85</v>
       </c>
@@ -7931,7 +7988,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>87</v>
       </c>
@@ -7951,7 +8008,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>87</v>
       </c>
@@ -7971,7 +8028,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>84</v>
       </c>
@@ -7991,7 +8048,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>87</v>
       </c>
@@ -8011,7 +8068,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>87</v>
       </c>
@@ -8031,7 +8088,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>84</v>
       </c>
@@ -8051,7 +8108,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>84</v>
       </c>
@@ -8071,7 +8128,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>86</v>
       </c>
@@ -8091,7 +8148,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>86</v>
       </c>
@@ -8111,9 +8168,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="B367" t="s">
         <v>110</v>
@@ -8131,9 +8188,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="B368" t="s">
         <v>110</v>
@@ -8151,9 +8208,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="B369" t="s">
         <v>110</v>
@@ -8171,9 +8228,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="B370" t="s">
         <v>110</v>
@@ -8191,9 +8248,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="B371" t="s">
         <v>110</v>
@@ -8211,9 +8268,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="B372" t="s">
         <v>110</v>
@@ -8231,9 +8288,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="B373" t="s">
         <v>110</v>
@@ -8251,9 +8308,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="B374" t="s">
         <v>110</v>
@@ -8271,9 +8328,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="B375" t="s">
         <v>110</v>
@@ -8291,9 +8348,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
       <c r="B376" t="s">
         <v>110</v>
@@ -8311,9 +8368,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="B377" t="s">
         <v>110</v>
@@ -8331,9 +8388,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="B378" t="s">
         <v>110</v>
@@ -8351,9 +8408,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="B379" t="s">
         <v>110</v>
@@ -8371,9 +8428,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="B380" t="s">
         <v>110</v>
@@ -8391,9 +8448,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="B381" t="s">
         <v>110</v>
@@ -8411,9 +8468,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="B382" t="s">
         <v>110</v>
@@ -8431,9 +8488,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="B383" t="s">
         <v>110</v>
@@ -8451,7 +8508,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>86</v>
       </c>
@@ -8471,7 +8528,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>88</v>
       </c>
@@ -8491,7 +8548,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>86</v>
       </c>
@@ -8511,7 +8568,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>84</v>
       </c>
@@ -8531,7 +8588,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>86</v>
       </c>
@@ -8551,7 +8608,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>84</v>
       </c>
@@ -8571,7 +8628,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>84</v>
       </c>
@@ -8591,7 +8648,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>84</v>
       </c>
@@ -8611,7 +8668,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>84</v>
       </c>
@@ -8631,7 +8688,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>84</v>
       </c>
@@ -8651,7 +8708,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>84</v>
       </c>
@@ -8671,7 +8728,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>84</v>
       </c>
@@ -8691,7 +8748,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>84</v>
       </c>
@@ -8711,7 +8768,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>88</v>
       </c>
@@ -8731,7 +8788,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>84</v>
       </c>
@@ -8751,7 +8808,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>86</v>
       </c>
@@ -8771,7 +8828,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>86</v>
       </c>
@@ -8791,7 +8848,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>88</v>
       </c>
@@ -8811,7 +8868,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>86</v>
       </c>
@@ -8831,7 +8888,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>86</v>
       </c>
@@ -8851,7 +8908,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>86</v>
       </c>
@@ -8871,7 +8928,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>86</v>
       </c>
@@ -8891,7 +8948,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>86</v>
       </c>
@@ -8911,7 +8968,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>89</v>
       </c>
@@ -8931,7 +8988,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>85</v>
       </c>
@@ -8951,7 +9008,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>90</v>
       </c>
@@ -8971,7 +9028,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>91</v>
       </c>
@@ -8991,7 +9048,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>92</v>
       </c>
@@ -9011,7 +9068,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>93</v>
       </c>
@@ -9031,7 +9088,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>92</v>
       </c>
@@ -9051,7 +9108,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>94</v>
       </c>
@@ -9071,7 +9128,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>95</v>
       </c>
@@ -9091,7 +9148,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>96</v>
       </c>
@@ -9111,7 +9168,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>96</v>
       </c>
@@ -9131,7 +9188,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>97</v>
       </c>
@@ -9151,7 +9208,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>96</v>
       </c>
@@ -9171,7 +9228,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>97</v>
       </c>
@@ -9191,7 +9248,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>98</v>
       </c>
@@ -9211,7 +9268,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>99</v>
       </c>
@@ -9231,7 +9288,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>97</v>
       </c>
@@ -9251,7 +9308,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>99</v>
       </c>
@@ -9271,7 +9328,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>98</v>
       </c>
@@ -9291,7 +9348,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>97</v>
       </c>
@@ -9311,7 +9368,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>98</v>
       </c>
@@ -9331,7 +9388,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>98</v>
       </c>
@@ -9351,7 +9408,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>98</v>
       </c>
@@ -9371,7 +9428,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>100</v>
       </c>
@@ -9391,7 +9448,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>101</v>
       </c>
@@ -9411,7 +9468,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>42</v>
       </c>
@@ -9431,7 +9488,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>42</v>
       </c>
@@ -9451,7 +9508,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>42</v>
       </c>
@@ -9471,7 +9528,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>42</v>
       </c>
@@ -9491,7 +9548,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>42</v>
       </c>
@@ -9511,7 +9568,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>42</v>
       </c>
@@ -9531,7 +9588,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>102</v>
       </c>
@@ -9551,7 +9608,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>63</v>
       </c>
@@ -9571,7 +9628,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>42</v>
       </c>
@@ -9591,7 +9648,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>42</v>
       </c>
@@ -9611,7 +9668,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>102</v>
       </c>
@@ -9631,7 +9688,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>42</v>
       </c>
@@ -9651,7 +9708,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>42</v>
       </c>
@@ -9671,9 +9728,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="B445" t="s">
         <v>110</v>
@@ -9691,9 +9748,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="B446" t="s">
         <v>110</v>
@@ -9711,9 +9768,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="B447" t="s">
         <v>110</v>
@@ -9731,9 +9788,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="B448" t="s">
         <v>110</v>
@@ -9751,9 +9808,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="B449" t="s">
         <v>110</v>
@@ -9771,9 +9828,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="B450" t="s">
         <v>110</v>
@@ -9791,9 +9848,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="B451" t="s">
         <v>110</v>
@@ -9811,9 +9868,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="B452" t="s">
         <v>110</v>
@@ -9831,9 +9888,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="B453" t="s">
         <v>110</v>
@@ -9851,9 +9908,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="B454" t="s">
         <v>110</v>
@@ -9871,9 +9928,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="B455" t="s">
         <v>110</v>
@@ -9891,9 +9948,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="B456" t="s">
         <v>110</v>
@@ -9911,9 +9968,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="B457" t="s">
         <v>110</v>
@@ -9931,9 +9988,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="B458" t="s">
         <v>110</v>
@@ -9951,9 +10008,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="B459" t="s">
         <v>110</v>
@@ -9971,9 +10028,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="B460" t="s">
         <v>110</v>
@@ -9991,9 +10048,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="B461" t="s">
         <v>110</v>
@@ -10011,9 +10068,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="B462" t="s">
         <v>110</v>
@@ -10031,9 +10088,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="B463" t="s">
         <v>110</v>
@@ -10051,9 +10108,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="B464" t="s">
         <v>110</v>
@@ -10071,9 +10128,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="B465" t="s">
         <v>110</v>
@@ -10091,9 +10148,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="B466" t="s">
         <v>110</v>
@@ -10111,9 +10168,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="B467" t="s">
         <v>110</v>
@@ -10131,9 +10188,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="B468" t="s">
         <v>110</v>
@@ -10151,9 +10208,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="B469" t="s">
         <v>110</v>
@@ -10171,9 +10228,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="B470" t="s">
         <v>110</v>
@@ -10191,9 +10248,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="B471" t="s">
         <v>110</v>
@@ -10211,7 +10268,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>54</v>
       </c>
@@ -10231,7 +10288,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>42</v>
       </c>
@@ -10251,7 +10308,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>42</v>
       </c>
@@ -10271,7 +10328,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>54</v>
       </c>
@@ -10291,7 +10348,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>54</v>
       </c>
@@ -10311,7 +10368,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>54</v>
       </c>
@@ -10331,7 +10388,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>54</v>
       </c>
@@ -10351,7 +10408,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>42</v>
       </c>
@@ -10371,7 +10428,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>54</v>
       </c>
@@ -10391,7 +10448,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>103</v>
       </c>
@@ -10411,7 +10468,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>42</v>
       </c>
@@ -10431,7 +10488,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>104</v>
       </c>
@@ -10451,7 +10508,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>105</v>
       </c>
@@ -10471,7 +10528,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>106</v>
       </c>
@@ -10491,7 +10548,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>107</v>
       </c>
@@ -10511,7 +10568,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>101</v>
       </c>
@@ -10531,7 +10588,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>101</v>
       </c>
@@ -10551,7 +10608,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>100</v>
       </c>
@@ -10571,7 +10628,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>20</v>
       </c>
@@ -10591,7 +10648,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>101</v>
       </c>
@@ -10611,7 +10668,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>19</v>
       </c>
@@ -10631,7 +10688,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>19</v>
       </c>
@@ -10651,7 +10708,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>19</v>
       </c>
@@ -10671,7 +10728,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>19</v>
       </c>
@@ -10691,7 +10748,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>19</v>
       </c>
@@ -10711,7 +10768,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>100</v>
       </c>
@@ -10731,7 +10788,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>19</v>
       </c>
@@ -10751,7 +10808,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>19</v>
       </c>
@@ -10771,7 +10828,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>20</v>
       </c>
@@ -10791,7 +10848,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>64</v>
       </c>
@@ -10811,7 +10868,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>64</v>
       </c>
@@ -10831,7 +10888,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>64</v>
       </c>
@@ -10851,7 +10908,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>64</v>
       </c>
@@ -10871,7 +10928,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>64</v>
       </c>
@@ -10891,7 +10948,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>64</v>
       </c>
@@ -10911,7 +10968,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>64</v>
       </c>
@@ -10931,7 +10988,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>64</v>
       </c>
@@ -10951,7 +11008,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>64</v>
       </c>
@@ -10971,7 +11028,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>64</v>
       </c>
@@ -10991,7 +11048,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>64</v>
       </c>
@@ -11011,7 +11068,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>64</v>
       </c>
@@ -11031,7 +11088,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>64</v>
       </c>
@@ -11051,7 +11108,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>64</v>
       </c>
@@ -11071,7 +11128,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>64</v>
       </c>
@@ -11091,7 +11148,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>64</v>
       </c>
@@ -11111,7 +11168,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>64</v>
       </c>
@@ -11131,7 +11188,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>64</v>
       </c>
@@ -11151,9 +11208,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B519" t="s">
         <v>110</v>
@@ -11171,9 +11228,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B520" t="s">
         <v>110</v>
@@ -11191,9 +11248,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="B521" t="s">
         <v>110</v>
@@ -11211,9 +11268,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="B522" t="s">
         <v>110</v>
@@ -11231,9 +11288,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B523" t="s">
         <v>110</v>
@@ -11251,9 +11308,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="B524" t="s">
         <v>110</v>
@@ -11271,9 +11328,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="B525" t="s">
         <v>110</v>
@@ -11291,9 +11348,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="B526" t="s">
         <v>110</v>
@@ -11311,9 +11368,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="B527" t="s">
         <v>110</v>
@@ -11331,9 +11388,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="B528" t="s">
         <v>110</v>
@@ -11351,9 +11408,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
-        <v>64</v>
+        <v>134</v>
       </c>
       <c r="B529" t="s">
         <v>110</v>
@@ -11371,7 +11428,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>64</v>
       </c>
@@ -11391,7 +11448,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>64</v>
       </c>
@@ -11411,7 +11468,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>64</v>
       </c>
@@ -11431,7 +11488,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>64</v>
       </c>
@@ -11451,7 +11508,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>64</v>
       </c>
@@ -11471,7 +11528,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>64</v>
       </c>
@@ -11491,7 +11548,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>64</v>
       </c>
@@ -11511,7 +11568,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>64</v>
       </c>
@@ -11531,7 +11588,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>64</v>
       </c>
@@ -11551,7 +11608,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>64</v>
       </c>
@@ -11571,7 +11628,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>64</v>
       </c>
@@ -11591,7 +11648,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>64</v>
       </c>
@@ -11611,7 +11668,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>64</v>
       </c>
@@ -11631,7 +11688,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>64</v>
       </c>
@@ -11651,7 +11708,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>64</v>
       </c>
@@ -11671,7 +11728,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>64</v>
       </c>
@@ -11691,7 +11748,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>64</v>
       </c>
@@ -11711,7 +11768,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>64</v>
       </c>
@@ -11731,9 +11788,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="B548" t="s">
         <v>110</v>
@@ -11751,9 +11808,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B549" t="s">
         <v>110</v>
@@ -11771,9 +11828,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="B550" t="s">
         <v>110</v>
@@ -11791,9 +11848,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="B551" t="s">
         <v>110</v>
@@ -11811,9 +11868,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="B552" t="s">
         <v>110</v>
@@ -11831,9 +11888,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="B553" t="s">
         <v>110</v>
@@ -11851,9 +11908,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="B554" t="s">
         <v>110</v>
@@ -11871,9 +11928,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="B555" t="s">
         <v>110</v>
@@ -11891,9 +11948,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="B556" t="s">
         <v>110</v>
@@ -11911,7 +11968,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>129</v>
       </c>
@@ -11931,7 +11988,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>129</v>
       </c>
@@ -11951,7 +12008,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>129</v>
       </c>
@@ -11971,7 +12028,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>129</v>
       </c>
@@ -11991,7 +12048,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>129</v>
       </c>
@@ -12011,7 +12068,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>129</v>
       </c>
@@ -12031,7 +12088,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>129</v>
       </c>
@@ -12051,7 +12108,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>129</v>
       </c>
@@ -12071,7 +12128,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>129</v>
       </c>
@@ -12091,7 +12148,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>129</v>
       </c>
@@ -12111,7 +12168,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>129</v>
       </c>
@@ -12131,7 +12188,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>129</v>
       </c>
@@ -12151,9 +12208,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="B569" t="s">
         <v>110</v>
@@ -12171,9 +12228,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="B570" t="s">
         <v>110</v>
@@ -12191,9 +12248,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="B571" t="s">
         <v>110</v>
@@ -12211,9 +12268,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="B572" t="s">
         <v>110</v>
@@ -12231,9 +12288,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="B573" t="s">
         <v>110</v>
@@ -12251,9 +12308,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="B574" t="s">
         <v>110</v>
@@ -12271,9 +12328,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="B575" t="s">
         <v>110</v>
@@ -12291,9 +12348,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="B576" t="s">
         <v>110</v>
@@ -12311,9 +12368,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="B577" t="s">
         <v>110</v>
@@ -12331,9 +12388,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="B578" t="s">
         <v>110</v>
@@ -12351,9 +12408,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="B579" t="s">
         <v>110</v>
@@ -12371,9 +12428,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="B580" t="s">
         <v>110</v>
@@ -12391,9 +12448,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="B581" t="s">
         <v>110</v>
@@ -12411,9 +12468,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="B582" t="s">
         <v>110</v>
@@ -12431,9 +12488,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="B583" t="s">
         <v>110</v>
@@ -12451,9 +12508,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="B584" t="s">
         <v>110</v>
@@ -12471,9 +12528,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="B585" t="s">
         <v>110</v>
@@ -12491,9 +12548,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="B586" t="s">
         <v>110</v>
@@ -12511,9 +12568,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="B587" t="s">
         <v>110</v>
@@ -12531,9 +12588,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="B588" t="s">
         <v>110</v>
@@ -12551,9 +12608,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="B589" t="s">
         <v>110</v>
@@ -12571,7 +12628,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>129</v>
       </c>
@@ -12591,7 +12648,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>129</v>
       </c>
@@ -12611,7 +12668,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>129</v>
       </c>
@@ -12631,7 +12688,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>129</v>
       </c>
@@ -12651,7 +12708,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>129</v>
       </c>
@@ -12671,7 +12728,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>129</v>
       </c>
@@ -12691,7 +12748,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>129</v>
       </c>
@@ -12711,7 +12768,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>129</v>
       </c>
@@ -12731,7 +12788,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>129</v>
       </c>
@@ -12751,7 +12808,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>129</v>
       </c>
@@ -12771,7 +12828,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>129</v>
       </c>

--- a/public/Good_Excel.xlsx
+++ b/public/Good_Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cesar Torres\Documents\GitHub\Drivewise-Template\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC13C154-F9F9-4BDB-9A8A-F6026AF5A3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D01571C-E3B0-4B09-8D04-22526298AE1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8736" yWindow="1644" windowWidth="21840" windowHeight="15000" xr2:uid="{586F1875-D0D9-46B0-BE9D-36C076FB772B}"/>
+    <workbookView xWindow="2184" yWindow="816" windowWidth="21840" windowHeight="15000" xr2:uid="{586F1875-D0D9-46B0-BE9D-36C076FB772B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3600" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3600" uniqueCount="150">
   <si>
     <t xml:space="preserve">2ND ST                        </t>
   </si>
@@ -483,6 +483,9 @@
   </si>
   <si>
     <t xml:space="preserve">AVIATION DR E                 </t>
+  </si>
+  <si>
+    <t>Vehicle/Pedestrian</t>
   </si>
 </sst>
 </file>
@@ -836,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F44A69-D277-4AC6-B839-E6BFF3307372}">
   <dimension ref="A1:F600"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="A367" sqref="A367:A383"/>
+    <sheetView tabSelected="1" topLeftCell="A267" workbookViewId="0">
+      <selection activeCell="D285" sqref="D285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2299,7 +2302,7 @@
         <v>112</v>
       </c>
       <c r="D73" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="E73" t="s">
         <v>123</v>
@@ -3819,7 +3822,7 @@
         <v>112</v>
       </c>
       <c r="D149" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="E149" t="s">
         <v>123</v>
@@ -4499,7 +4502,7 @@
         <v>112</v>
       </c>
       <c r="D183" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="E183" t="s">
         <v>123</v>
@@ -5539,7 +5542,7 @@
         <v>112</v>
       </c>
       <c r="D235" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="E235" t="s">
         <v>123</v>
@@ -6539,7 +6542,7 @@
         <v>112</v>
       </c>
       <c r="D285" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="E285" t="s">
         <v>123</v>
@@ -6779,7 +6782,7 @@
         <v>112</v>
       </c>
       <c r="D297" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="E297" t="s">
         <v>123</v>
@@ -7079,7 +7082,7 @@
         <v>112</v>
       </c>
       <c r="D312" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="E312" t="s">
         <v>123</v>
@@ -7379,7 +7382,7 @@
         <v>112</v>
       </c>
       <c r="D327" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="E327" t="s">
         <v>123</v>
@@ -7639,7 +7642,7 @@
         <v>112</v>
       </c>
       <c r="D340" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="E340" t="s">
         <v>126</v>
@@ -7999,7 +8002,7 @@
         <v>112</v>
       </c>
       <c r="D358" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="E358" t="s">
         <v>125</v>
@@ -8299,7 +8302,7 @@
         <v>112</v>
       </c>
       <c r="D373" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="E373" t="s">
         <v>123</v>
@@ -8479,7 +8482,7 @@
         <v>112</v>
       </c>
       <c r="D382" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="E382" t="s">
         <v>123</v>
@@ -9299,7 +9302,7 @@
         <v>112</v>
       </c>
       <c r="D423" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="E423" t="s">
         <v>123</v>
@@ -9559,7 +9562,7 @@
         <v>112</v>
       </c>
       <c r="D436" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="E436" t="s">
         <v>123</v>
@@ -9679,7 +9682,7 @@
         <v>112</v>
       </c>
       <c r="D442" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="E442" t="s">
         <v>123</v>
@@ -9979,7 +9982,7 @@
         <v>112</v>
       </c>
       <c r="D457" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="E457" t="s">
         <v>126</v>
@@ -10339,7 +10342,7 @@
         <v>112</v>
       </c>
       <c r="D475" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="E475" t="s">
         <v>123</v>
@@ -10639,7 +10642,7 @@
         <v>112</v>
       </c>
       <c r="D490" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="E490" t="s">
         <v>123</v>
@@ -10659,7 +10662,7 @@
         <v>112</v>
       </c>
       <c r="D491" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="E491" t="s">
         <v>126</v>
@@ -10999,7 +11002,7 @@
         <v>112</v>
       </c>
       <c r="D508" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="E508" t="s">
         <v>125</v>
@@ -11359,7 +11362,7 @@
         <v>112</v>
       </c>
       <c r="D526" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="E526" t="s">
         <v>125</v>
@@ -11719,7 +11722,7 @@
         <v>112</v>
       </c>
       <c r="D544" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="E544" t="s">
         <v>125</v>
@@ -12019,7 +12022,7 @@
         <v>112</v>
       </c>
       <c r="D559" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="E559" t="s">
         <v>128</v>
@@ -12319,7 +12322,7 @@
         <v>112</v>
       </c>
       <c r="D574" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="E574" t="s">
         <v>128</v>
@@ -12579,7 +12582,7 @@
         <v>112</v>
       </c>
       <c r="D587" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="E587" t="s">
         <v>128</v>
@@ -12679,7 +12682,7 @@
         <v>112</v>
       </c>
       <c r="D592" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="E592" t="s">
         <v>128</v>
